--- a/Organization/SSD Team Skills Inventory.xlsx
+++ b/Organization/SSD Team Skills Inventory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -169,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -196,6 +196,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,7 +506,7 @@
   <dimension ref="A2:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,7 +543,9 @@
       <c r="C3" s="2">
         <v>2</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="10">
+        <v>1</v>
+      </c>
       <c r="E3" s="2">
         <v>2</v>
       </c>
@@ -551,7 +556,7 @@
         <v>3</v>
       </c>
       <c r="H3" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" s="9"/>
     </row>
@@ -562,7 +567,9 @@
       <c r="C4" s="2">
         <v>2</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="5">
+        <v>3</v>
+      </c>
       <c r="E4" s="5">
         <v>3</v>
       </c>
@@ -584,7 +591,9 @@
       <c r="C5" s="4">
         <v>1</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
       <c r="E5" s="2">
         <v>2</v>
       </c>
@@ -595,7 +604,7 @@
         <v>2</v>
       </c>
       <c r="H5" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" s="9"/>
     </row>
@@ -606,7 +615,9 @@
       <c r="C6" s="4">
         <v>1</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
       <c r="E6" s="2">
         <v>2</v>
       </c>
@@ -628,7 +639,9 @@
       <c r="C7" s="4">
         <v>1</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
       <c r="E7" s="2">
         <v>2</v>
       </c>
@@ -639,7 +652,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
@@ -649,7 +662,9 @@
       <c r="C8" s="5">
         <v>3</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
       <c r="E8" s="4">
         <v>1</v>
       </c>
@@ -670,7 +685,9 @@
       <c r="C9" s="2">
         <v>2</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
       <c r="E9" s="2">
         <v>2</v>
       </c>
@@ -681,7 +698,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
@@ -691,7 +708,9 @@
       <c r="C10" s="4">
         <v>1</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2">
+        <v>2</v>
+      </c>
       <c r="E10" s="2">
         <v>2</v>
       </c>
@@ -712,7 +731,9 @@
       <c r="C11" s="4">
         <v>1</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
       <c r="E11" s="4">
         <v>1</v>
       </c>
@@ -723,7 +744,7 @@
         <v>3</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
@@ -733,7 +754,9 @@
       <c r="C12" s="2">
         <v>2</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="5">
+        <v>3</v>
+      </c>
       <c r="E12" s="5">
         <v>3</v>
       </c>
@@ -754,7 +777,9 @@
       <c r="C13" s="2">
         <v>2</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="5">
+        <v>3</v>
+      </c>
       <c r="E13" s="2">
         <v>2</v>
       </c>
@@ -775,7 +800,9 @@
       <c r="C14" s="4">
         <v>1</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2">
+        <v>2</v>
+      </c>
       <c r="E14" s="4">
         <v>1</v>
       </c>
@@ -796,7 +823,9 @@
       <c r="C15" s="4">
         <v>1</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2">
+        <v>2</v>
+      </c>
       <c r="E15" s="2">
         <v>2</v>
       </c>
@@ -817,7 +846,9 @@
       <c r="C16" s="5">
         <v>3</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2">
+        <v>2</v>
+      </c>
       <c r="E16" s="4">
         <v>1</v>
       </c>
@@ -838,7 +869,9 @@
       <c r="C17" s="2">
         <v>2</v>
       </c>
-      <c r="D17" s="2"/>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
       <c r="E17" s="2">
         <v>2</v>
       </c>
@@ -849,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
@@ -862,7 +895,9 @@
       <c r="C18" s="4">
         <v>1</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>2</v>
+      </c>
       <c r="E18" s="4">
         <v>1</v>
       </c>
